--- a/data/trans_orig/IP12_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Edad-trans_orig.xlsx
@@ -887,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -896,66 +896,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>372441</v>
+        <v>187719</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>428</v>
+        <v>257</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>327612</v>
+        <v>182492</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>871</v>
+        <v>502</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>700055</v>
+        <v>370211</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>93,95%</t>
         </is>
       </c>
     </row>
@@ -967,66 +967,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>30269</v>
+        <v>17336</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>23196</v>
+        <v>15775</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>53464</v>
+        <v>33112</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>10,68%</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>941</v>
+        <v>552</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>753519</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1113,66 +1113,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>245</v>
+        <v>443</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>187719</v>
+        <v>372441</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>257</v>
+        <v>428</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>182492</v>
+        <v>327612</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>502</v>
+        <v>871</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>370211</v>
+        <v>700055</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>94,53%</t>
         </is>
       </c>
     </row>
@@ -1184,66 +1184,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>17336</v>
+        <v>30269</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>15775</v>
+        <v>23196</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>33112</v>
+        <v>53464</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>552</v>
+        <v>941</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>403323</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/IP12_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -670,75 +670,75 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>108709</v>
+        <v>5233</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>95180</v>
+        <v>4651</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>203889</v>
+        <v>9884</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -746,70 +746,70 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>9229</v>
+        <v>53270</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>8623</v>
+        <v>52718</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>85,64%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>17852</v>
+        <v>105987</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>94,71%</t>
         </is>
       </c>
     </row>
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -887,75 +887,75 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>187719</v>
+        <v>15425</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>182492</v>
+        <v>13421</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>502</v>
+        <v>51</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>370211</v>
+        <v>28846</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>11,49%</t>
         </is>
       </c>
     </row>
@@ -963,70 +963,70 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>17336</v>
+        <v>159874</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>15775</v>
+        <v>145344</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>50</v>
+        <v>483</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>33112</v>
+        <v>305217</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>88,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>93,48%</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1104,75 +1104,75 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>372441</v>
+        <v>14306</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>428</v>
+        <v>21</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>327612</v>
+        <v>14528</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>871</v>
+        <v>39</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>700055</v>
+        <v>28833</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>10,29%</t>
         </is>
       </c>
     </row>
@@ -1180,70 +1180,70 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>30269</v>
+        <v>188172</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>23196</v>
+        <v>161585</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>53464</v>
+        <v>349758</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>94,45%</t>
         </is>
       </c>
     </row>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1321,75 +1321,75 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>897</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>668870</v>
+        <v>21871</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>865</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>605285</v>
+        <v>14994</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>1762</v>
+        <v>47</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1274154</v>
+        <v>36865</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>8,83%</t>
         </is>
       </c>
     </row>
@@ -1397,70 +1397,70 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>56834</v>
+        <v>267553</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>47594</v>
+        <v>245639</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>157</v>
+        <v>637</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>104429</v>
+        <v>513192</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>94,95%</t>
         </is>
       </c>
     </row>
@@ -1472,73 +1472,298 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>684</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>56834</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>47594</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9,21%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>104429</v>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>897</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>668870</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>92,17%</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>90,04%</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>93,72%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>865</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>605285</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>92,71%</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>90,79%</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>94,23%</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>1762</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>1274154</v>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>92,42%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>91,17%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>93,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>977</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D18" s="2" t="n">
         <v>725704</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>942</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I18" s="2" t="n">
         <v>652879</v>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n">
         <v>1919</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="N18" s="2" t="n">
         <v>1378583</v>
       </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP12_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Edad-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,99%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,64%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>87,01%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,36%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>86,99%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,51%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>93,66%</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,94%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>94,99%</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>93,62%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP12_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,13 +537,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
+          <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -552,7 +552,7 @@
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="I1" s="3" t="n"/>
@@ -682,32 +682,32 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5233</v>
+        <v>4575</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>4651</v>
+        <v>5544</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -717,28 +717,28 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>20</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9884</v>
+        <v>10119</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>13,72%</t>
         </is>
       </c>
     </row>
@@ -750,40 +750,40 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>52936</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>92,04%</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>85,57%</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>95,86%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>53270</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>91,06%</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>83,79%</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>95,39%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>99</v>
-      </c>
       <c r="I5" s="2" t="n">
-        <v>52718</v>
+        <v>55900</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -795,21 +795,21 @@
         <v>205</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>105987</v>
+        <v>108836</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,01%</t>
+          <t>86,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>94,73%</t>
         </is>
       </c>
     </row>
@@ -821,31 +821,31 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>109</v>
-      </c>
       <c r="I6" s="2" t="n">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -896,66 +896,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>13265</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>15425</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>8,8%</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>12,65%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>24</v>
-      </c>
       <c r="I7" s="2" t="n">
-        <v>13421</v>
+        <v>16037</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>51</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>28846</v>
+        <v>29303</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -967,66 +967,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>146034</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>91,67%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>87,49%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>94,6%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>159874</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>91,2%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>87,35%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>94,23%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>234</v>
-      </c>
       <c r="I8" s="2" t="n">
-        <v>145344</v>
+        <v>166517</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>483</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>305217</v>
+        <v>312550</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>93,57%</t>
         </is>
       </c>
     </row>
@@ -1038,31 +1038,31 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>258</v>
-      </c>
       <c r="I9" s="2" t="n">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1113,56 +1113,56 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>14863</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>14306</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,44%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>21</v>
-      </c>
       <c r="I10" s="2" t="n">
-        <v>14528</v>
+        <v>14875</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>39</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>28833</v>
+        <v>29738</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -1184,61 +1184,61 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>158209</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>91,41%</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>87,34%</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94,47%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>188172</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>92,93%</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>89,56%</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>95,54%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>212</v>
-      </c>
       <c r="I11" s="2" t="n">
-        <v>161585</v>
+        <v>197615</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>437</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>349758</v>
+        <v>355825</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>233</v>
-      </c>
       <c r="I12" s="2" t="n">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1330,66 +1330,66 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>14568</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>21871</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>11,0%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>22</v>
-      </c>
       <c r="I13" s="2" t="n">
-        <v>14994</v>
+        <v>22647</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>47</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>36865</v>
+        <v>37215</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,53%</t>
         </is>
       </c>
     </row>
@@ -1401,66 +1401,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>260890</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>94,71%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>92,1%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>96,89%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>317</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>267553</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>92,44%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>89,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>94,87%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>320</v>
-      </c>
       <c r="I14" s="2" t="n">
-        <v>245639</v>
+        <v>282836</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>637</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>513192</v>
+        <v>543725</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>95,42%</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1547,66 +1547,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>47272</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>56834</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>77</v>
-      </c>
       <c r="I16" s="2" t="n">
-        <v>47594</v>
+        <v>59103</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>157</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>104429</v>
+        <v>106375</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,73%</t>
         </is>
       </c>
     </row>
@@ -1618,66 +1618,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
+        <v>865</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>618068</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>92,9%</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>91,02%</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94,48%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>897</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>668870</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>92,17%</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>90,12%</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>93,79%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>865</v>
-      </c>
       <c r="I17" s="2" t="n">
-        <v>605285</v>
+        <v>702869</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>1762</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1274154</v>
+        <v>1320937</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>93,75%</t>
         </is>
       </c>
     </row>
@@ -1689,31 +1689,31 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
+        <v>942</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>977</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>942</v>
-      </c>
       <c r="I18" s="2" t="n">
-        <v>652879</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>1919</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1378583</v>
+        <v>1427312</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
